--- a/02_Output/Manual_Count_Timeframe-10_Minute_Intervall/018_local_data.xlsx
+++ b/02_Output/Manual_Count_Timeframe-10_Minute_Intervall/018_local_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,28 +668,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45392.33333333334</v>
+        <v>45250.34027777778</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -709,19 +709,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45392.34027777778</v>
+        <v>45250.34722222222</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -750,40 +750,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45392.34722222222</v>
+        <v>45250.35416666666</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -791,19 +791,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45392.35416666666</v>
+        <v>45250.36111111111</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -812,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -832,40 +832,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45392.36111111111</v>
+        <v>45392.33333333334</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -873,19 +873,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45392.36805555555</v>
+        <v>45392.34027777778</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -914,40 +914,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45392.66666666666</v>
+        <v>45392.34722222222</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -955,40 +955,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45392.67361111111</v>
+        <v>45392.35416666666</v>
       </c>
       <c r="C13" t="n">
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -996,40 +996,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45392.68055555555</v>
+        <v>45392.36111111111</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1037,19 +1037,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45392.83333333334</v>
+        <v>45392.36805555555</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1078,40 +1078,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45392.84027777778</v>
+        <v>45392.66666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1119,40 +1119,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45392.84722222222</v>
+        <v>45392.67361111111</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1160,37 +1160,37 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45392.85416666666</v>
+        <v>45392.68055555555</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>8</v>
@@ -1201,28 +1201,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45392.86111111111</v>
+        <v>45392.6875</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1242,39 +1242,326 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
+        <v>45392.69444444445</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>125</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>47</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45392.70138888889</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>150</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>32</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>48</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45392.83333333334</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>61</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>21</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45392.84027777778</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>66</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>19</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45392.84722222222</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>51</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>19</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>37</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45392.85416666666</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>58</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>22</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>21</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45392.86111111111</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>63</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>18</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>45392.86805555555</v>
       </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
         <v>58</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>17</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>22</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>6</v>
       </c>
     </row>
